--- a/Data/ET-med-solution.xlsx
+++ b/Data/ET-med-solution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabadi\Google Drive\ENMA703\Spring 2018\Assignments\Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfoytik\Documents\GitHub\tabuTermProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31CD636-F915-4565-81E5-2ED8D7B6B7CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="710" windowWidth="14460" windowHeight="8250"/>
+    <workbookView xWindow="840" yWindow="713" windowWidth="14460" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_med" sheetId="4" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghaith Rabadi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,12 +103,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghaith Rabadi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -579,19 +580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -602,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -613,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -624,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -635,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -646,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -657,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -668,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -679,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -690,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -701,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -721,20 +722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.9296875" customWidth="1"/>
+    <col min="3" max="3" width="44.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -745,108 +746,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1732</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1732</v>
+        <v>1499</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1484</v>
+        <v>1495</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1495</v>
+        <v>1533</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1533</v>
+        <v>1626</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1626</v>
+        <v>1673</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1673</v>
+        <v>1638</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1638</v>
+        <v>1499</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1499</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
